--- a/results/mp/logistic/corona/confidence/84/desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-masking-0.1/avg_0.004_scores.xlsx
@@ -61,51 +61,57 @@
     <t>fuck</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -121,33 +127,33 @@
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -160,61 +166,55 @@
     <t>better</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -691,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8918918918918919</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>0.9666666666666667</v>
@@ -812,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>0.9491525423728814</v>
@@ -862,16 +862,16 @@
         <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.9302325581395349</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -912,16 +912,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -962,16 +962,16 @@
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.9112271540469974</v>
+        <v>0.9060052219321149</v>
       </c>
       <c r="L9">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M9">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7189922480620154</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="C10">
-        <v>371</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>371</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.8962264150943396</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7142857142857143</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C11">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8936170212765957</v>
+        <v>0.890625</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,37 +1091,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.711864406779661</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="C12">
+        <v>366</v>
+      </c>
+      <c r="D12">
+        <v>366</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>150</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12">
-        <v>42</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>17</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="K12">
-        <v>0.8928571428571429</v>
+        <v>0.8875</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>0.8873239436619719</v>
@@ -1191,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6862745098039216</v>
+        <v>0.6772486772486772</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.8828125</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L14">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="M14">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,7 +1241,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="C15">
         <v>26</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.88125</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L15">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1312,7 +1312,7 @@
         <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K16">
         <v>0.8620689655172413</v>
@@ -1341,13 +1341,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5638888888888889</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C17">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K17">
         <v>0.8611111111111112</v>
@@ -1391,13 +1391,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5333333333333333</v>
+        <v>0.5611111111111111</v>
       </c>
       <c r="C18">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <v>0.8536585365853658</v>
@@ -1441,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.509090909090909</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1459,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.8095238095238095</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,13 +1491,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1509,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.8</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1541,13 +1541,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3376623376623377</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1559,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>28</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K21">
-        <v>0.7948717948717948</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1591,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3222222222222222</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.7916666666666666</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1641,13 +1641,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2698412698412698</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C23">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1659,19 +1659,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.78</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1691,89 +1691,137 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1501340482573726</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>64</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24">
+        <v>0.7423728813559322</v>
+      </c>
+      <c r="L24">
+        <v>219</v>
+      </c>
+      <c r="M24">
+        <v>219</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.1662198391420912</v>
+      </c>
+      <c r="C25">
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>62</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>311</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25">
+        <v>0.74</v>
+      </c>
+      <c r="L25">
+        <v>37</v>
+      </c>
+      <c r="M25">
+        <v>37</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.01159420289855072</v>
+      </c>
+      <c r="C26">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>38</v>
+      </c>
+      <c r="E26">
+        <v>0.05</v>
+      </c>
+      <c r="F26">
+        <v>0.95</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3069</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D24">
-        <v>56</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>317</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24">
-        <v>0.7705882352941177</v>
-      </c>
-      <c r="L24">
-        <v>262</v>
-      </c>
-      <c r="M24">
-        <v>262</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="L25">
-        <v>26</v>
-      </c>
-      <c r="M25">
-        <v>26</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K26">
-        <v>0.735593220338983</v>
+        <v>0.725</v>
       </c>
       <c r="L26">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1785,21 +1833,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K27">
-        <v>0.723404255319149</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L27">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1811,21 +1859,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.7112970711297071</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L28">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M28">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1837,21 +1885,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>0.6966292134831461</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L29">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1863,21 +1911,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.6666666666666666</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1889,21 +1937,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.6615384615384615</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L31">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1915,21 +1963,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.6571428571428571</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L32">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M32">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1941,12 +1989,12 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K33">
         <v>0.6222222222222222</v>
@@ -1972,7 +2020,7 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K34">
         <v>0.5342465753424658</v>
@@ -1998,16 +2046,16 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.4754098360655737</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2019,85 +2067,33 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.4487179487179487</v>
+        <v>0.02251876563803169</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K37">
-        <v>0.4375</v>
-      </c>
-      <c r="L37">
-        <v>28</v>
-      </c>
-      <c r="M37">
-        <v>28</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K38">
-        <v>0.423728813559322</v>
-      </c>
-      <c r="L38">
-        <v>25</v>
-      </c>
-      <c r="M38">
-        <v>25</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>34</v>
+        <v>1172</v>
       </c>
     </row>
   </sheetData>
